--- a/-114/Fonte Estabilizada/T2B.xlsx
+++ b/-114/Fonte Estabilizada/T2B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\-114\Fonte Estabilizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932380BB-1B11-4D49-9A91-EB3DEA2FF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E404A783-FAAD-43FE-BE4D-97097FBB4224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>f /Hz</t>
   </si>
@@ -792,6 +792,12 @@
       </rPr>
       <t xml:space="preserve"> 0.01 /mA</t>
     </r>
+  </si>
+  <si>
+    <t>lmed</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -878,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1002,11 +1008,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1026,10 +1043,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1041,6 +1054,12 @@
     <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,31 +1176,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-28.078817733990164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-21.779859484777525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-16.59192825112105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-16.731517509727613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-13.513513513513512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-7.0422535211267343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.5118110236220685</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12.669126691266925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>21.979067554709818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,31 +1519,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-29.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-14.657210401891263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-5.9751972942502976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-8.3591331269349869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.3872679045092862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.7357512953367937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.6369426751592504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.7490774907749138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.333333333333316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2022,21 +2041,23 @@
     <col min="13" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.25" customHeight="1"/>
-    <row r="2" spans="2:12" ht="14.25" customHeight="1">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="14">
+        <v>50</v>
+      </c>
       <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="e">
+      <c r="F2" s="17">
         <f>1/C2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="14.25" customHeight="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2044,273 +2065,305 @@
       <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18" t="e">
+      <c r="F3" s="18">
         <f>C3/C2^2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="14.25" customHeight="1"/>
-    <row r="5" spans="2:12" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.25" customHeight="1">
+      <c r="C5" s="14">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.25" customHeight="1"/>
-    <row r="8" spans="2:12" ht="14.25" customHeight="1"/>
-    <row r="9" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B9" s="19" t="s">
+      <c r="C6" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="H8">
+        <f>C$5*(1-EXP(-F$2/(E12*C$11*10^-6)))</f>
+        <v>0.28672321051818395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="2:12" ht="14.25" customHeight="1"/>
-    <row r="11" spans="2:12" ht="14.25" customHeight="1">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="15">
         <v>100</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E12" s="22">
+    <row r="12" spans="1:12" ht="14.25" customHeight="1">
+      <c r="D12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E12" s="20">
         <v>10000</v>
       </c>
-      <c r="F12" s="22">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G12" s="22">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H12" s="23" t="e">
-        <f t="shared" ref="H12:H15" si="0">C$5*(1-EXP(-F$2/(E12*C$11*10^-6)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="23" t="e">
-        <f t="shared" ref="I12:I20" si="1">SQRT((1-EXP(-F$3/(E12*C$11*10^-6)))^2*C$6^2+(C$5/(E12*C$11)*EXP(-F$2/(E12*C$11*10^-6)))^2*F$3^2+(C$5*F$2/(E12^2*C$11*10^-6)*EXP(-F$2/(E12*C$11*10^-6)))^2*(E12*0.05)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="14" t="e">
-        <f t="shared" ref="J12:J20" si="2">(H12-F12)/H12*100</f>
-        <v>#DIV/0!</v>
+      <c r="F12" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="H12" s="21">
+        <f xml:space="preserve"> D12*10^-3/(C$11*10^-6*C$2)</f>
+        <v>0.40599999999999997</v>
+      </c>
+      <c r="I12" s="21">
+        <f>SQRT((1-EXP(-F$3/(E12*C$11*10^-6)))^2*C$6^2+(C$5/(E12*C$11)*EXP(-F$2/(E12*C$11*10^-6)))^2*F$3^2+(C$5*F$2/(E12^2*C$11*10^-6)*EXP(-F$2/(E12*C$11*10^-6)))^2*(E12*0.05)^2)</f>
+        <v>1.4193276789481818E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" ref="J12:J20" si="0">(H12-F12)/H12*100</f>
+        <v>-28.078817733990164</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" ht="14.25" customHeight="1">
+    <row r="13" spans="1:12" ht="14.25" customHeight="1">
+      <c r="D13">
+        <v>4.2699999999999996</v>
+      </c>
       <c r="E13" s="15">
         <v>4700</v>
       </c>
       <c r="F13" s="15">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H13" s="16" t="e">
+        <v>1.04</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="21">
+        <f t="shared" ref="H13:H20" si="1" xml:space="preserve"> D13*10^-3/(C$11*10^-6*C$2)</f>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" ref="I12:I20" si="2">SQRT((1-EXP(-F$3/(E13*C$11*10^-6)))^2*C$6^2+(C$5/(E13*C$11)*EXP(-F$2/(E13*C$11*10^-6)))^2*F$3^2+(C$5*F$2/(E13^2*C$11*10^-6)*EXP(-F$2/(E13*C$11*10^-6)))^2*(E13*0.05)^2)</f>
+        <v>2.9525012331497201E-2</v>
+      </c>
+      <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="16" t="e">
+        <v>-21.779859484777525</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1">
+      <c r="D14">
+        <v>8.92</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2.08</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="16" t="e">
+        <v>1.7840000000000005</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E14" s="22">
-        <v>2200</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G14" s="22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H14" s="14" t="e">
+        <v>6.0098628962577991E-2</v>
+      </c>
+      <c r="J14" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-16.59192825112105</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:12" ht="14.25" customHeight="1">
+    <row r="15" spans="1:12" ht="14.25" customHeight="1">
+      <c r="D15">
+        <v>12.85</v>
+      </c>
       <c r="E15" s="15">
         <v>1500</v>
       </c>
       <c r="F15" s="15">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G15" s="15">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H15" s="16" t="e">
+        <v>3</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="21">
+        <f t="shared" si="1"/>
+        <v>2.5700000000000003</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="2"/>
+        <v>8.448339773161255E-2</v>
+      </c>
+      <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="16" t="e">
+        <v>-16.731517509727613</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>18.5</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="16" t="e">
+        <v>3.7</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E16" s="22">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="G16" s="22">
+        <v>0.11855221304569177</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="0"/>
+        <v>-13.513513513513512</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D17">
+        <v>35.5</v>
+      </c>
+      <c r="E17" s="22">
+        <v>470</v>
+      </c>
+      <c r="F17" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="G17" s="15">
         <v>0.01</v>
       </c>
-      <c r="H16" s="14" t="e">
-        <f t="shared" ref="H16:H17" si="3">7.8*(1-EXP(-F$2/(E16*C$11*10^-6)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="14" t="e">
+      <c r="H17" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="14" t="e">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E17" s="24">
-        <v>470</v>
-      </c>
-      <c r="F17" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="H17" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="25" t="e">
+        <v>0.201309625729888</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>-7.0422535211267343</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D18">
+        <v>63.5</v>
+      </c>
+      <c r="E18" s="24">
+        <v>220</v>
+      </c>
+      <c r="F18" s="14">
+        <v>12</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="16" t="e">
+        <v>12.700000000000003</v>
+      </c>
+      <c r="I18" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E18" s="26">
-        <v>220</v>
-      </c>
-      <c r="F18" s="14">
-        <v>3.58</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="H18" s="27" t="e">
-        <f t="shared" ref="H18:H20" si="4">C$5*(1-EXP(-F$2/(E18*C$11*10^-6)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="27" t="e">
+        <v>0.26517508435190207</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="0"/>
+        <v>5.5118110236220685</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D19">
+        <v>81.3</v>
+      </c>
+      <c r="E19" s="22">
+        <v>150</v>
+      </c>
+      <c r="F19" s="16">
+        <v>14.2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="14" t="e">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E19" s="24">
-        <v>150</v>
-      </c>
-      <c r="F19" s="16">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="25" t="e">
+        <v>0.25445910399438149</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="0"/>
+        <v>12.669126691266925</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D20">
+        <v>105.1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>100</v>
+      </c>
+      <c r="F20" s="20">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="16" t="e">
+        <v>21.020000000000003</v>
+      </c>
+      <c r="I20" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E20" s="26">
-        <v>100</v>
-      </c>
-      <c r="F20" s="14">
-        <v>5.3</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="H20" s="27" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.19596549012661524</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>21.979067554709818</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2322,249 +2375,271 @@
       <c r="C22" s="15">
         <v>1000</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E23" s="22">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20">
         <v>10000</v>
       </c>
-      <c r="F23" s="22">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G23" s="22">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H23" s="23" t="e">
-        <f t="shared" ref="H23:H31" si="5">C$5*(1-EXP(-F$2/(E23*C$22*10^-6)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="23" t="e">
-        <f t="shared" ref="I23:I31" si="6">SQRT((1-EXP(-F$3/(E23*C$22*10^-6)))^2*C$6^2+(C$5/(E23*C$22)*EXP(-F$2/(E23*C$22*10^-6)))^2*F$3^2+(C$5*F$2/(E23^2*C$22*10^-6)*EXP(-F$2/(E23*C$22*10^-6)))^2*(E23*0.05)^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="14" t="e">
-        <f t="shared" ref="J23:J31" si="7">(H23-F23)/H23*100</f>
-        <v>#DIV/0!</v>
+      <c r="F23" s="20">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21">
+        <f xml:space="preserve"> D23*10^-3/(C$22*10^-6*C$2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" ref="I23:I31" si="3">SQRT((1-EXP(-F$3/(E23*C$22*10^-6)))^2*C$6^2+(C$5/(E23*C$22)*EXP(-F$2/(E23*C$22*10^-6)))^2*F$3^2+(C$5*F$2/(E23^2*C$22*10^-6)*EXP(-F$2/(E23*C$22*10^-6)))^2*(E23*0.05)^2)</f>
+        <v>1.4451068940702983E-3</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" ref="J23:J31" si="4">(H23-F23)/H23*100</f>
+        <v>-29.999999999999993</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D24">
+        <v>4.2300000000000004</v>
+      </c>
       <c r="E24" s="15">
         <v>4700</v>
       </c>
       <c r="F24" s="15">
-        <v>2.8299999999999999E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="G24" s="15">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="H24" s="28" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" ref="H24:H31" si="5" xml:space="preserve"> D24*10^-3/(C$22*10^-6*C$2)</f>
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="I24" s="26">
+        <f t="shared" si="3"/>
+        <v>3.0677689134061322E-3</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="4"/>
+        <v>-14.657210401891263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D25">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2200</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.188</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="28" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E25" s="22">
-        <v>2200</v>
-      </c>
-      <c r="F25" s="29">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="G25" s="22">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H25" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.17739999999999997</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="3"/>
+        <v>6.5222546247324497E-3</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="4"/>
+        <v>-5.9751972942502976</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D26">
+        <v>12.92</v>
+      </c>
       <c r="E26" s="15">
         <v>1500</v>
       </c>
-      <c r="F26" s="30">
-        <v>8.48E-2</v>
-      </c>
-      <c r="G26" s="15">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="H26" s="28" t="e">
+      <c r="F26" s="28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="28" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="3"/>
+        <v>9.5254764953121296E-3</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="4"/>
+        <v>-8.3591331269349869</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E27" s="22">
+      <c r="D27">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E27" s="20">
         <v>1000</v>
       </c>
-      <c r="F27" s="23">
-        <v>0.127</v>
-      </c>
-      <c r="G27" s="22">
+      <c r="F27" s="21">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21">
+        <f t="shared" si="5"/>
+        <v>0.377</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="3"/>
+        <v>1.4193276789481818E-2</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="4"/>
+        <v>2.3872679045092862</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D28">
+        <v>38.6</v>
+      </c>
+      <c r="E28" s="22">
+        <v>470</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="G28" s="15">
         <v>1E-3</v>
       </c>
-      <c r="H27" s="23" t="e">
+      <c r="H28" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E28" s="24">
-        <v>470</v>
-      </c>
-      <c r="F28" s="28">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="G28" s="15">
-        <v>2E-3</v>
-      </c>
-      <c r="H28" s="16" t="e">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9525012331497204E-2</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="4"/>
+        <v>6.7357512953367937</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D29">
+        <v>78.5</v>
+      </c>
+      <c r="E29" s="24">
+        <v>220</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1.58</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E29" s="26">
-        <v>220</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0.53</v>
-      </c>
-      <c r="G29" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="H29" s="14" t="e">
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="3"/>
+        <v>6.0098628962577998E-2</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="4"/>
+        <v>-0.6369426751592504</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D30">
+        <v>108.4</v>
+      </c>
+      <c r="E30" s="22">
+        <v>150</v>
+      </c>
+      <c r="F30" s="26">
+        <v>2</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E30" s="24">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="3"/>
+        <v>8.448339773161255E-2</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="4"/>
+        <v>7.7490774907749138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="14.25" customHeight="1">
+      <c r="D31">
         <v>150</v>
       </c>
-      <c r="F30" s="28">
-        <v>0.752</v>
-      </c>
-      <c r="G30" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="H30" s="16" t="e">
+      <c r="E31" s="24">
+        <v>100</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="14.25" customHeight="1">
-      <c r="E31" s="26">
-        <v>100</v>
-      </c>
-      <c r="F31" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="H31" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="3"/>
+        <v>0.11855221304569177</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="4"/>
+        <v>13.333333333333316</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="14.25" customHeight="1">
-      <c r="I32" s="31"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="2:8" ht="14.25" customHeight="1"/>
     <row r="34" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="2:8" ht="14.25" customHeight="1"/>
     <row r="36" spans="2:8" ht="14.25" customHeight="1">
       <c r="B36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="14">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="14.25" customHeight="1">
       <c r="B37" s="13" t="s">
@@ -2580,142 +2655,136 @@
       <c r="C39" s="15">
         <v>100</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E40" s="22">
-        <v>10000</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="G40" s="22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H40" s="22">
+      <c r="E40" s="15">
+        <v>4700</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E41" s="15">
-        <v>4700</v>
-      </c>
-      <c r="F41" s="28">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G41" s="15">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="E41" s="20">
+        <v>2200</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="15">
         <v>1.05</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E42" s="22">
-        <v>2200</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0.752</v>
-      </c>
-      <c r="G42" s="22">
+      <c r="E42" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D43">
+        <v>6.19</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H42" s="22">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E43" s="15">
-        <v>1500</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="G43" s="15">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="G43" s="15"/>
       <c r="H43" s="15">
         <v>3.21</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D44">
+        <v>11.96</v>
+      </c>
       <c r="E44" s="22">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="22">
-        <v>1.18</v>
-      </c>
-      <c r="G44" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="H44" s="22">
+        <v>470</v>
+      </c>
+      <c r="F44" s="20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D45">
+        <v>24.63</v>
+      </c>
       <c r="E45" s="24">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="F45" s="15">
-        <v>1.91</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0.01</v>
-      </c>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G45" s="15"/>
       <c r="H45" s="15">
         <v>9.11</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E46" s="26">
-        <v>220</v>
-      </c>
-      <c r="F46" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="H46" s="22">
+      <c r="D46">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="E46" s="22">
+        <v>150</v>
+      </c>
+      <c r="F46" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20">
         <v>16.93</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D47">
+        <v>52.62</v>
+      </c>
       <c r="E47" s="24">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F47" s="15">
-        <v>3.44</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0.01</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="G47" s="15"/>
       <c r="H47" s="15">
         <v>22.16</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="14.25" customHeight="1">
-      <c r="E48" s="26">
-        <v>100</v>
-      </c>
-      <c r="F48" s="22">
-        <v>3.96</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="H48" s="22">
+      <c r="D48">
+        <v>92.2</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="20">
+        <v>3.28</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20">
         <v>29.14</v>
       </c>
     </row>
@@ -2744,12 +2813,8 @@
       <c r="E51" s="10">
         <v>10000</v>
       </c>
-      <c r="F51" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0.04</v>
-      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="10">
         <v>0.51</v>
       </c>
@@ -2758,12 +2823,8 @@
       <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.08</v>
-      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3">
         <v>1.08</v>
       </c>
@@ -2772,12 +2833,8 @@
       <c r="E53" s="8">
         <v>2200</v>
       </c>
-      <c r="F53" s="8">
-        <v>1.28</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0.04</v>
-      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="8">
         <v>2.35</v>
       </c>
@@ -2786,12 +2843,8 @@
       <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
-        <v>2.64</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.04</v>
-      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3">
         <v>3.43</v>
       </c>
@@ -2800,12 +2853,8 @@
       <c r="E55" s="8">
         <v>1000</v>
       </c>
-      <c r="F55" s="12">
-        <v>6.8</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0.04</v>
-      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="8">
         <v>5.24</v>
       </c>
@@ -2814,20 +2863,56 @@
       <c r="E56" s="5">
         <v>470</v>
       </c>
-      <c r="F56" s="5">
-        <v>114</v>
-      </c>
-      <c r="G56" s="5">
-        <v>4</v>
-      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="5">
         <v>10.75</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="14.25" customHeight="1"/>
-    <row r="58" spans="2:8" ht="14.25" customHeight="1"/>
-    <row r="59" spans="2:8" ht="14.25" customHeight="1"/>
-    <row r="60" spans="2:8" ht="14.25" customHeight="1"/>
+    <row r="57" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D57">
+        <v>24.61</v>
+      </c>
+      <c r="E57" s="32">
+        <v>220</v>
+      </c>
+      <c r="F57">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D58">
+        <v>35.43</v>
+      </c>
+      <c r="E58">
+        <v>150</v>
+      </c>
+      <c r="F58">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D59">
+        <v>52.72</v>
+      </c>
+      <c r="E59" s="32">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="14.25" customHeight="1">
+      <c r="D60">
+        <v>105.3</v>
+      </c>
+      <c r="E60" s="33">
+        <v>47</v>
+      </c>
+      <c r="F60">
+        <v>0.12</v>
+      </c>
+    </row>
     <row r="61" spans="2:8" ht="14.25" customHeight="1"/>
     <row r="62" spans="2:8" ht="14.25" customHeight="1"/>
     <row r="63" spans="2:8" ht="14.25" customHeight="1"/>

--- a/-114/Fonte Estabilizada/T2B.xlsx
+++ b/-114/Fonte Estabilizada/T2B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAII\-114\Fonte Estabilizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0390E17-D64C-49D2-AE1E-C13F89C77FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232FE51-65BA-49DD-A0F9-7D10B6BF055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,16 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,6 +901,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,31 +1035,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-28.078817733990164</c:v>
+                  <c:v>28.078817733990164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21.779859484777525</c:v>
+                  <c:v>21.779859484777525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16.59192825112105</c:v>
+                  <c:v>16.59192825112105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.731517509727613</c:v>
+                  <c:v>16.731517509727613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13.513513513513512</c:v>
+                  <c:v>13.513513513513512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.0422535211267343</c:v>
+                  <c:v>7.0422535211267343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5118110236220685</c:v>
+                  <c:v>-5.5118110236220685</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.669126691266925</c:v>
+                  <c:v>-12.669126691266925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.979067554709818</c:v>
+                  <c:v>-21.979067554709818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1182,6 @@
         <c:axId val="1040807278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1410,31 +1406,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-29.999999999999993</c:v>
+                  <c:v>29.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14.657210401891263</c:v>
+                  <c:v>14.657210401891263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.9751972942502976</c:v>
+                  <c:v>5.9751972942502976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.3591331269349869</c:v>
+                  <c:v>8.3591331269349869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3872679045092862</c:v>
+                  <c:v>-2.3872679045092862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7357512953367937</c:v>
+                  <c:v>-6.7357512953367937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.6369426751592504</c:v>
+                  <c:v>0.6369426751592504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7490774907749138</c:v>
+                  <c:v>-7.7490774907749138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.333333333333316</c:v>
+                  <c:v>-13.333333333333316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1551,6 @@
         <c:axId val="181240416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1926,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1997,11 +1992,11 @@
     <row r="7" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2037,7 +2032,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="26">
+      <c r="D12" s="23">
         <v>2.0299999999999998</v>
       </c>
       <c r="E12" s="12">
@@ -2060,14 +2055,14 @@
         <f t="shared" ref="J12:J20" si="0">SQRT((1-EXP(-F$3/(E12*C$11*10^-6)))^2*C$6^2+(C$5/(E12*C$11)*EXP(-F$2/(E12*C$11*10^-6)))^2*F$3^2+(C$5*F$2/(E12^2*C$11*10^-6)*EXP(-F$2/(E12*C$11*10^-6)))^2*(E12*0.05)^2)</f>
         <v>1.4405030073396103E-2</v>
       </c>
-      <c r="K12" s="24">
-        <f>(I12-G12)/I12*100</f>
-        <v>-28.078817733990164</v>
+      <c r="K12" s="22">
+        <f>-(I12-G12)/I12*100</f>
+        <v>28.078817733990164</v>
       </c>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <v>4.2699999999999996</v>
       </c>
       <c r="E13" s="5">
@@ -2090,14 +2085,14 @@
         <f t="shared" si="0"/>
         <v>2.9970699422633768E-2</v>
       </c>
-      <c r="K13" s="25">
-        <f t="shared" ref="K13:K20" si="2">(I13-G13)/I13*100</f>
-        <v>-21.779859484777525</v>
+      <c r="K13" s="22">
+        <f t="shared" ref="K13:K20" si="2">-(I13-G13)/I13*100</f>
+        <v>21.779859484777525</v>
       </c>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="26">
+      <c r="D14" s="23">
         <v>8.92</v>
       </c>
       <c r="E14" s="12">
@@ -2120,14 +2115,14 @@
         <f t="shared" si="0"/>
         <v>6.0903915944077201E-2</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
-        <v>-16.59192825112105</v>
+        <v>16.59192825112105</v>
       </c>
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="26">
+      <c r="D15" s="23">
         <v>12.85</v>
       </c>
       <c r="E15" s="5">
@@ -2150,14 +2145,14 @@
         <f t="shared" si="0"/>
         <v>8.5821968537797347E-2</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="22">
         <f t="shared" si="2"/>
-        <v>-16.731517509727613</v>
+        <v>16.731517509727613</v>
       </c>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="26">
+      <c r="D16" s="23">
         <v>18.5</v>
       </c>
       <c r="E16" s="12">
@@ -2180,14 +2175,14 @@
         <f t="shared" si="0"/>
         <v>0.11902826627755991</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <f t="shared" si="2"/>
-        <v>-13.513513513513512</v>
+        <v>13.513513513513512</v>
       </c>
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="26">
+      <c r="D17" s="23">
         <v>35.5</v>
       </c>
       <c r="E17" s="15">
@@ -2210,14 +2205,14 @@
         <f t="shared" si="0"/>
         <v>0.20214873483824108</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <f t="shared" si="2"/>
-        <v>-7.0422535211267343</v>
+        <v>7.0422535211267343</v>
       </c>
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="26">
+      <c r="D18" s="23">
         <v>63.5</v>
       </c>
       <c r="E18" s="16">
@@ -2240,14 +2235,14 @@
         <f t="shared" si="0"/>
         <v>0.26571638252438023</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="22">
         <f t="shared" si="2"/>
-        <v>5.5118110236220685</v>
+        <v>-5.5118110236220685</v>
       </c>
       <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="26">
+      <c r="D19" s="23">
         <v>81.3</v>
       </c>
       <c r="E19" s="15">
@@ -2270,14 +2265,14 @@
         <f t="shared" si="0"/>
         <v>0.2523698365948488</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="22">
         <f t="shared" si="2"/>
-        <v>12.669126691266925</v>
+        <v>-12.669126691266925</v>
       </c>
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="26">
+      <c r="D20" s="23">
         <v>105.1</v>
       </c>
       <c r="E20" s="16">
@@ -2300,9 +2295,9 @@
         <f t="shared" si="0"/>
         <v>0.19094288074840679</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="22">
         <f t="shared" si="2"/>
-        <v>21.979067554709818</v>
+        <v>-21.979067554709818</v>
       </c>
       <c r="M20" s="14"/>
     </row>
@@ -2340,7 +2335,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <v>2</v>
       </c>
       <c r="E23" s="12">
@@ -2363,13 +2358,13 @@
         <f t="shared" ref="J23:J31" si="3">SQRT((1-EXP(-F$3/(E23*C$22*10^-6)))^2*C$6^2+(C$5/(E23*C$22)*EXP(-F$2/(E23*C$22*10^-6)))^2*F$3^2+(C$5*F$2/(E23^2*C$22*10^-6)*EXP(-F$2/(E23*C$22*10^-6)))^2*(E23*0.05)^2)</f>
         <v>1.4670689150584827E-3</v>
       </c>
-      <c r="K23" s="24">
-        <f>(I23-G23)/I23*100</f>
-        <v>-29.999999999999993</v>
+      <c r="K23" s="22">
+        <f>-(I23-G23)/I23*100</f>
+        <v>29.999999999999993</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="26">
+      <c r="D24" s="23">
         <v>4.2300000000000004</v>
       </c>
       <c r="E24" s="5">
@@ -2392,13 +2387,13 @@
         <f t="shared" si="3"/>
         <v>3.1159597847574298E-3</v>
       </c>
-      <c r="K24" s="25">
-        <f t="shared" ref="K24:K31" si="5">(I24-G24)/I24*100</f>
-        <v>-14.657210401891263</v>
+      <c r="K24" s="22">
+        <f t="shared" ref="K24:K31" si="5">-(I24-G24)/I24*100</f>
+        <v>14.657210401891263</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>8.8699999999999992</v>
       </c>
       <c r="E25" s="12">
@@ -2421,13 +2416,13 @@
         <f t="shared" si="3"/>
         <v>6.6176360307951491E-3</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <f t="shared" si="5"/>
-        <v>-5.9751972942502976</v>
+        <v>5.9751972942502976</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="26">
+      <c r="D26" s="23">
         <v>12.92</v>
       </c>
       <c r="E26" s="5">
@@ -2450,13 +2445,13 @@
         <f t="shared" si="3"/>
         <v>9.6977074960045845E-3</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="22">
         <f t="shared" si="5"/>
-        <v>-8.3591331269349869</v>
+        <v>8.3591331269349869</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="26">
+      <c r="D27" s="23">
         <v>18.850000000000001</v>
       </c>
       <c r="E27" s="12">
@@ -2479,13 +2474,13 @@
         <f t="shared" si="3"/>
         <v>1.4263166232343699E-2</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="22">
         <f t="shared" si="5"/>
-        <v>2.3872679045092862</v>
+        <v>-2.3872679045092862</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="26">
+      <c r="D28" s="23">
         <v>38.6</v>
       </c>
       <c r="E28" s="15">
@@ -2508,13 +2503,13 @@
         <f t="shared" si="3"/>
         <v>2.973093363065046E-2</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="22">
         <f t="shared" si="5"/>
-        <v>6.7357512953367937</v>
+        <v>-6.7357512953367937</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="26">
+      <c r="D29" s="23">
         <v>78.5</v>
       </c>
       <c r="E29" s="16">
@@ -2537,13 +2532,13 @@
         <f t="shared" si="3"/>
         <v>6.1522111984391926E-2</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="22">
         <f t="shared" si="5"/>
-        <v>-0.6369426751592504</v>
+        <v>0.6369426751592504</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="26">
+      <c r="D30" s="23">
         <v>108.4</v>
       </c>
       <c r="E30" s="15">
@@ -2566,13 +2561,13 @@
         <f t="shared" si="3"/>
         <v>8.6226664790481786E-2</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="22">
         <f t="shared" si="5"/>
-        <v>7.7490774907749138</v>
+        <v>-7.7490774907749138</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="26">
+      <c r="D31" s="23">
         <v>150</v>
       </c>
       <c r="E31" s="16">
@@ -2595,9 +2590,9 @@
         <f t="shared" si="3"/>
         <v>0.12097006070710939</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="22">
         <f t="shared" si="5"/>
-        <v>13.333333333333316</v>
+        <v>-13.333333333333316</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2605,11 +2600,11 @@
     </row>
     <row r="33" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2662,7 +2657,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="26">
+      <c r="E40" s="23">
         <v>6.19</v>
       </c>
       <c r="F40" s="12">
@@ -2671,7 +2666,7 @@
       <c r="G40" s="12">
         <v>1</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="24">
         <f>(G$36*F40)/(G$36+F40)</f>
         <v>819.24551748624174</v>
       </c>
@@ -2683,7 +2678,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="26">
+      <c r="E41" s="23">
         <v>11.96</v>
       </c>
       <c r="F41" s="15">
@@ -2692,7 +2687,7 @@
       <c r="G41" s="15">
         <v>0.1</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="24">
         <f t="shared" ref="H41:H45" si="6">(G$36*F41)/(G$36+F41)</f>
         <v>423.94914390941506</v>
       </c>
@@ -2704,7 +2699,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="26">
+      <c r="E42" s="23">
         <v>24.63</v>
       </c>
       <c r="F42" s="16">
@@ -2713,7 +2708,7 @@
       <c r="G42" s="15">
         <v>0.1</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="24">
         <f t="shared" si="6"/>
         <v>204.92688154315394</v>
       </c>
@@ -2725,7 +2720,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="26">
+      <c r="E43" s="23">
         <v>35.479999999999997</v>
       </c>
       <c r="F43" s="15">
@@ -2734,7 +2729,7 @@
       <c r="G43" s="15">
         <v>0.1</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="24">
         <f t="shared" si="6"/>
         <v>142.01421256139616</v>
       </c>
@@ -2746,7 +2741,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="26">
+      <c r="E44" s="23">
         <v>52.62</v>
       </c>
       <c r="F44" s="16">
@@ -2755,7 +2750,7 @@
       <c r="G44" s="15">
         <v>0.1</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="24">
         <f t="shared" si="6"/>
         <v>95.492556224263538</v>
       </c>
@@ -2767,16 +2762,16 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="26">
+      <c r="E45" s="23">
         <v>92.2</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="23">
         <v>46.6</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="23">
         <v>0.1</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="24">
         <f t="shared" si="6"/>
         <v>46.136447081928019</v>
       </c>
@@ -2818,7 +2813,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="26">
+      <c r="E51" s="23">
         <v>24.61</v>
       </c>
       <c r="F51" s="16">
@@ -2827,19 +2822,19 @@
       <c r="G51" s="15">
         <v>0.1</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="25">
         <f>(G$36*F51)/(G$36+F51)</f>
         <v>204.92688154315394</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="23">
         <v>0.06</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="23">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="26">
+      <c r="E52" s="23">
         <v>35.43</v>
       </c>
       <c r="F52" s="15">
@@ -2848,19 +2843,19 @@
       <c r="G52" s="15">
         <v>0.1</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="25">
         <f t="shared" ref="H52:H54" si="7">(G$36*F52)/(G$36+F52)</f>
         <v>142.01421256139616</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="23">
         <v>0.12</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="23">
         <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="26">
+      <c r="E53" s="23">
         <v>52.72</v>
       </c>
       <c r="F53" s="16">
@@ -2869,35 +2864,35 @@
       <c r="G53" s="15">
         <v>0.1</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="25">
         <f t="shared" si="7"/>
         <v>95.492556224263538</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="23">
         <v>0.08</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="23">
         <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="26">
+      <c r="E54" s="23">
         <v>105.3</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="23">
         <v>46.6</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="23">
         <v>0.1</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="25">
         <f t="shared" si="7"/>
         <v>46.136447081928019</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="23">
         <v>0.12</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="23">
         <v>0.01</v>
       </c>
     </row>
